--- a/sg02/Assets/Resources/Config/Excel/LuaControlView.xlsx
+++ b/sg02/Assets/Resources/Config/Excel/LuaControlView.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +82,13 @@
   <si>
     <t>SelectTimesControl</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HistoryTimeControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HistoryTime</t>
   </si>
 </sst>
 </file>
@@ -498,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -582,6 +589,14 @@
         <v>14</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sg02/Assets/Resources/Config/Excel/LuaControlView.xlsx
+++ b/sg02/Assets/Resources/Config/Excel/LuaControlView.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,11 +84,88 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>HistoryTime</t>
+  </si>
+  <si>
+    <t>AdviserInstructions</t>
+  </si>
+  <si>
+    <t>AllInstructions</t>
+  </si>
+  <si>
+    <t>BattleFighting</t>
+  </si>
+  <si>
+    <t>BattleReady</t>
+  </si>
+  <si>
+    <t>BattleSelect</t>
+  </si>
+  <si>
+    <t>CityInstructions</t>
+  </si>
+  <si>
+    <t>DraftInstructions</t>
+  </si>
+  <si>
+    <t>FightPrepareInstructions</t>
+  </si>
+  <si>
+    <t>GeneralData</t>
+  </si>
+  <si>
+    <t>MajorInstructions</t>
+  </si>
+  <si>
+    <t>SelectGeneralData</t>
+  </si>
+  <si>
     <t>HistoryTimeControl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HistoryTime</t>
+    <t>AdviserInstructionsControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllInstructionsControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleFightingControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleReadyControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleSelectControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CityInstructionsControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DraftInstructionsControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FightPrepareInstructionsControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GeneralDataControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MajorInstructionsControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectGeneralDataControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -505,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -591,10 +668,98 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
-        <v>17</v>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/sg02/Assets/Resources/Config/Excel/LuaControlView.xlsx
+++ b/sg02/Assets/Resources/Config/Excel/LuaControlView.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,6 +161,14 @@
   </si>
   <si>
     <t>MajorInstructionsControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForceMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForceMapControl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -216,74 +224,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -303,7 +243,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CBE9CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -582,9 +522,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -759,7 +699,15 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
